--- a/src/DATA/nufus1.xlsx
+++ b/src/DATA/nufus1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altun\OneDrive\Desktop\folder\16_MERN\maps_1\src\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5145B4-DAD2-4D81-8FBE-7191FC9874C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C068F-9C4D-4C6A-A6F9-BA112EAAFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B701A3BC-AA98-4B6D-88B4-9E22FC5F7CA4}"/>
   </bookViews>
@@ -6166,7 +6166,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>id</t>
+    <t>provinceid</t>
   </si>
 </sst>
 </file>
@@ -7029,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C489A0-1FE2-48D8-B625-469F26955CB3}">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
